--- a/Semester_3/Publikationsprojekt/Problemtypologie_Publikationsprojekt.xlsx
+++ b/Semester_3/Publikationsprojekt/Problemtypologie_Publikationsprojekt.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28221"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/357609b57e560daa/Desktop/Repositories/Studium/Semester_3/Publikationsprojekt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="77" documentId="13_ncr:1_{CDE965C2-832E-4F8B-8631-22DC7706D039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9AE70C7-2A29-47A1-8C79-83ABA3A138E1}"/>
+  <xr:revisionPtr revIDLastSave="124" documentId="13_ncr:1_{CDE965C2-832E-4F8B-8631-22DC7706D039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A822F350-ECBD-405C-B18B-8D0D66B7D82A}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{8CF0B866-91C7-4F51-924A-B35B520145F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,6 +27,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,70 +36,43 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
-  <si>
-    <t xml:space="preserve">Sachliche Richtigkeit und Relevanz  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sicherheit und Rechtskonformität  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Präzision im Sprachgebrauch  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eindeutige Referenz </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eindeutige Funktion  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Klarer und konsistenter Bildaufbau  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Klare Anordnung und Struktur  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Funktionale Gestaltung  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Didaktische Aufbereitung  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zugriff und funktionale Mediengestaltung  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ökonomische Produktion  </t>
-  </si>
-  <si>
-    <t>Seite</t>
-  </si>
-  <si>
-    <t>Problem</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="59">
   <si>
     <t>Kategorie 
 (Bitte Subkategorien benennen!)</t>
   </si>
   <si>
+    <t>Seite</t>
+  </si>
+  <si>
+    <t>Problem</t>
+  </si>
+  <si>
     <t xml:space="preserve">ggf. Lösungsvorschlag </t>
   </si>
   <si>
-    <t>BO</t>
-  </si>
-  <si>
-    <t>BS</t>
-  </si>
-  <si>
-    <t>Sequ</t>
-  </si>
-  <si>
-    <t>Th</t>
-  </si>
-  <si>
-    <t>DI</t>
+    <t xml:space="preserve">Sachliche Richtigkeit und Relevanz  </t>
   </si>
   <si>
     <t>FA</t>
+  </si>
+  <si>
+    <t>auf dem Gerätebildschirm eine Grafik zum Ändern angezeigt werden.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sicherheit und Rechtskonformität  </t>
+  </si>
+  <si>
+    <t>§</t>
+  </si>
+  <si>
+    <t>vollständiges Kapitel Wartung des Gerätes sind eigentlich Warnhinweise</t>
+  </si>
+  <si>
+    <t>fehlen Hinweise auf das Risiko eines Stromschlags</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Präzision im Sprachgebrauch  </t>
   </si>
   <si>
     <t>SB</t>
@@ -111,76 +86,136 @@
 Gerät zu Reinigungsmitteln, Ätzmitteln oder anderen Chemikalien aussetzen.</t>
   </si>
   <si>
-    <t>§</t>
-  </si>
-  <si>
-    <t>vollständiges Kapitel Wartung des Gerätes sind eigentlich Warnhinweise</t>
-  </si>
-  <si>
     <t>Autorisiertes Zubehör nur verwenden.</t>
   </si>
   <si>
-    <t>auf dem Gerätebildschirm eine Grafik zum Ändern angezeigt werden.</t>
-  </si>
-  <si>
     <t>WS</t>
   </si>
   <si>
+    <t>das Wort „möglicherweise“ verursacht unsicherheit</t>
+  </si>
+  <si>
     <t>Schriftkegelgröße Taste.</t>
   </si>
   <si>
+    <t xml:space="preserve">Eindeutige Referenz </t>
+  </si>
+  <si>
     <t>Ref</t>
   </si>
   <si>
     <t>Gerät einschalten - Power-Taste 5 Sekunden lang drücken</t>
   </si>
   <si>
+    <t xml:space="preserve">Eindeutige Funktion  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Klarer und konsistenter Bildaufbau  </t>
+  </si>
+  <si>
+    <t>BS</t>
+  </si>
+  <si>
     <t>1,2</t>
   </si>
   <si>
     <t>Bildnummerierung hat verschiedene Größen</t>
   </si>
   <si>
+    <t>BO</t>
+  </si>
+  <si>
     <t>Bilder haben verschiedene Auflösungen</t>
   </si>
   <si>
+    <t>Tastenbeschreibung unübersichtlich</t>
+  </si>
+  <si>
+    <t>1,2,3, 4</t>
+  </si>
+  <si>
+    <t>ungenügend und unklarer Bilder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Klare Anordnung und Struktur  </t>
+  </si>
+  <si>
+    <t>Th</t>
+  </si>
+  <si>
     <t>Kapitel Laden vor Gerätebeschreibung</t>
   </si>
   <si>
-    <t>Tastenbeschreibung unübersichtlich</t>
+    <t>Sequ</t>
   </si>
   <si>
     <t>Bild passt nicht zu Text im Kapitel Startbildschirm</t>
   </si>
   <si>
+    <t xml:space="preserve">Funktionale Gestaltung  </t>
+  </si>
+  <si>
+    <t>Lay</t>
+  </si>
+  <si>
+    <t>Alle</t>
+  </si>
+  <si>
+    <t>Blocksatz ist nicht schlechter Stil</t>
+  </si>
+  <si>
+    <t>Manchmal Lehrzeichen nach Nummerierung, oft nicht</t>
+  </si>
+  <si>
+    <t>Typ, Lay</t>
+  </si>
+  <si>
+    <t>Beschreibung der Menü- und Tastenfunktionen textlästig</t>
+  </si>
+  <si>
+    <t>klarere typographische Darstellung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Didaktische Aufbereitung  </t>
+  </si>
+  <si>
+    <t>DI</t>
+  </si>
+  <si>
     <t>3ff</t>
   </si>
   <si>
     <t>Blocksatz und lange Texte sind nicht lernfördernd</t>
   </si>
   <si>
-    <t>Alle</t>
+    <t>fehlen praxisnahe Beispiele über die Funktionen des Geräts</t>
+  </si>
+  <si>
+    <t>Schritt-für-Schritt-Erklärungen mit Visualisierungen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zugriff und funktionale Mediengestaltung  </t>
+  </si>
+  <si>
+    <t>MZ</t>
+  </si>
+  <si>
+    <t>Link zu Beginn; Mediale Einbettung ungenügend</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>keine Hinweise, wie der Benutzer schnell zu den Hauptfunktionen gelangt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ökonomische Produktion  </t>
   </si>
   <si>
     <t>Eco</t>
   </si>
   <si>
     <t>Vermutlich kein, oder schlechtes Redaktionssystem verwendet, da schlechte Übersetzung; Kann zu Strafkosten führen</t>
-  </si>
-  <si>
-    <t>MZ</t>
-  </si>
-  <si>
-    <t>Link zu Beginn; Mediale Einbettung ungenügend</t>
-  </si>
-  <si>
-    <t>Lay</t>
-  </si>
-  <si>
-    <t>Blocksatz ist nicht schlechter Stil</t>
-  </si>
-  <si>
-    <t>Manchmal Lehrzeichen nach Nummerierung, oft nicht</t>
   </si>
 </sst>
 </file>
@@ -190,7 +225,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,7 +298,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -288,11 +323,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Komma" xfId="1" builtinId="3"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="2" xr:uid="{BBE49FD3-595C-4D9E-AC84-5946CC454979}"/>
+    <cellStyle name="Virgül" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -308,9 +344,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 – 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -348,7 +384,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 – 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -454,7 +490,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 – 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -596,7 +632,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -604,340 +640,409 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{307240ED-B140-4B16-AB32-4D7D72E5EA7B}">
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="89" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="38.05078125" customWidth="1"/>
-    <col min="2" max="2" width="7.89453125" customWidth="1"/>
-    <col min="3" max="3" width="47.83984375" customWidth="1"/>
-    <col min="4" max="4" width="61.62890625" customWidth="1"/>
+    <col min="1" max="1" width="38" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" customWidth="1"/>
+    <col min="3" max="3" width="106.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="61.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:4" s="3" customFormat="1" ht="31.15">
       <c r="A1" s="4" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4">
       <c r="A3" s="7" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B3" s="7">
         <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4">
       <c r="A5" s="5"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4">
       <c r="A6" s="5"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4">
       <c r="A7" s="9" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="9" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" ht="28.9">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="43.15">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15" customHeight="1">
+      <c r="A18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" ht="15" customHeight="1">
+      <c r="A19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="7">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="1:4" ht="15" customHeight="1">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="1:4" ht="15" customHeight="1"/>
+    <row r="22" spans="1:4" ht="15" customHeight="1"/>
+    <row r="23" spans="1:4" ht="15" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4" ht="15" customHeight="1"/>
+    <row r="25" spans="1:4" ht="15" customHeight="1"/>
+    <row r="26" spans="1:4" ht="15" customHeight="1"/>
+    <row r="27" spans="1:4" ht="15" customHeight="1"/>
+    <row r="28" spans="1:4" ht="15" customHeight="1">
+      <c r="A28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15" customHeight="1">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15" customHeight="1">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="1" t="s">
+    <row r="32" spans="1:4" ht="15" customHeight="1">
+      <c r="A32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15" customHeight="1">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="1:4" ht="15" customHeight="1">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15" customHeight="1">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15" customHeight="1">
+      <c r="B36" s="6"/>
+    </row>
+    <row r="37" spans="1:4" ht="15" customHeight="1"/>
+    <row r="38" spans="1:4" ht="15" customHeight="1">
+      <c r="A38" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="1:4" ht="15" customHeight="1">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15" customHeight="1">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40">
         <v>3</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="7">
+      <c r="C40" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15" customHeight="1">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41">
         <v>2</v>
       </c>
-      <c r="C18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="7"/>
-    </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-    </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29">
+      <c r="C41" t="s">
+        <v>43</v>
+      </c>
+      <c r="D41" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15" customHeight="1"/>
+    <row r="43" spans="1:4" ht="15" customHeight="1">
+      <c r="A43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+    </row>
+    <row r="44" spans="1:4" ht="15" customHeight="1">
+      <c r="A44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15" customHeight="1">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" t="s">
+        <v>49</v>
+      </c>
+      <c r="D45" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15" customHeight="1"/>
+    <row r="47" spans="1:4" ht="15" customHeight="1"/>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15">
+      <c r="A50" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50">
         <v>2</v>
       </c>
-      <c r="C29" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" t="s">
-        <v>18</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" t="s">
-        <v>17</v>
-      </c>
-      <c r="B34">
-        <v>2</v>
-      </c>
-      <c r="C34" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" s="6"/>
-    </row>
-    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-    </row>
-    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" t="s">
-        <v>45</v>
-      </c>
-      <c r="B38" t="s">
-        <v>40</v>
-      </c>
-      <c r="C38" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39">
-        <v>3</v>
-      </c>
-      <c r="C39" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-    </row>
-    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" t="s">
-        <v>19</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="C50" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" t="s">
-        <v>43</v>
-      </c>
-      <c r="B48">
-        <v>1</v>
-      </c>
-      <c r="C48" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" t="s">
-        <v>41</v>
-      </c>
-      <c r="B53" t="s">
-        <v>40</v>
-      </c>
-      <c r="C53" t="s">
-        <v>42</v>
+      <c r="C54" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/Semester_3/Publikationsprojekt/Problemtypologie_Publikationsprojekt.xlsx
+++ b/Semester_3/Publikationsprojekt/Problemtypologie_Publikationsprojekt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28221"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28224"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/357609b57e560daa/Desktop/Repositories/Studium/Semester_3/Publikationsprojekt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="124" documentId="13_ncr:1_{CDE965C2-832E-4F8B-8631-22DC7706D039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A822F350-ECBD-405C-B18B-8D0D66B7D82A}"/>
+  <xr:revisionPtr revIDLastSave="167" documentId="13_ncr:1_{CDE965C2-832E-4F8B-8631-22DC7706D039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9943C298-C947-4D99-AA14-1786C49814D0}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{8CF0B866-91C7-4F51-924A-B35B520145F4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="76">
   <si>
     <t>Kategorie 
 (Bitte Subkategorien benennen!)</t>
@@ -60,6 +60,9 @@
     <t>auf dem Gerätebildschirm eine Grafik zum Ändern angezeigt werden.</t>
   </si>
   <si>
+    <t>Batterie abnehmbar aber wurde nicht erwähnt wie man mit dem Batterieproblem umgehen kann</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sicherheit und Rechtskonformität  </t>
   </si>
   <si>
@@ -107,9 +110,36 @@
     <t>Gerät einschalten - Power-Taste 5 Sekunden lang drücken</t>
   </si>
   <si>
+    <t>Ref, TRef</t>
+  </si>
+  <si>
+    <t>2, 3</t>
+  </si>
+  <si>
+    <t>fehlt eindeutige Erklärung von Menütaste / gibt keine konsistente Seiten- oder Kapitelverweisstruktur</t>
+  </si>
+  <si>
+    <t>Tref</t>
+  </si>
+  <si>
+    <t>instruktionen für Lesezeichen nehmen keinen geneuen Bezug auf welches Buch</t>
+  </si>
+  <si>
+    <t>verständlicher umschreiben</t>
+  </si>
+  <si>
     <t xml:space="preserve">Eindeutige Funktion  </t>
   </si>
   <si>
+    <t>Fkt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OK-Taste hat mehrere Funktionen und wird nicht eindeutig erklärt </t>
+  </si>
+  <si>
+    <t>Bildschirmfarben invertieren wurde erwähnt aber nicht erklärt wofür man das verwenden kann (fehlt klare Beschreibung)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Klarer und konsistenter Bildaufbau  </t>
   </si>
   <si>
@@ -122,12 +152,18 @@
     <t>Bildnummerierung hat verschiedene Größen</t>
   </si>
   <si>
+    <t>einheitliche größe verwenden</t>
+  </si>
+  <si>
     <t>BO</t>
   </si>
   <si>
     <t>Bilder haben verschiedene Auflösungen</t>
   </si>
   <si>
+    <t>einheitliche auflösung, oder sklalierbare formate verwenden</t>
+  </si>
+  <si>
     <t>Tastenbeschreibung unübersichtlich</t>
   </si>
   <si>
@@ -137,6 +173,9 @@
     <t>ungenügend und unklarer Bilder</t>
   </si>
   <si>
+    <t>höhere auflösung, oder sklalierbare formate verwenden</t>
+  </si>
+  <si>
     <t xml:space="preserve">Klare Anordnung und Struktur  </t>
   </si>
   <si>
@@ -161,12 +200,18 @@
     <t>Alle</t>
   </si>
   <si>
-    <t>Blocksatz ist nicht schlechter Stil</t>
+    <t>Kein einhetlicher Stil (Blocksatz und linksbündig wechselnd)</t>
+  </si>
+  <si>
+    <t>Linksbündig besser</t>
   </si>
   <si>
     <t>Manchmal Lehrzeichen nach Nummerierung, oft nicht</t>
   </si>
   <si>
+    <t>einheitlich gestalten</t>
+  </si>
+  <si>
     <t>Typ, Lay</t>
   </si>
   <si>
@@ -209,6 +254,9 @@
     <t>keine Hinweise, wie der Benutzer schnell zu den Hauptfunktionen gelangt</t>
   </si>
   <si>
+    <t>keinen Zugang zum digitalen Support</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ökonomische Produktion  </t>
   </si>
   <si>
@@ -216,6 +264,9 @@
   </si>
   <si>
     <t>Vermutlich kein, oder schlechtes Redaktionssystem verwendet, da schlechte Übersetzung; Kann zu Strafkosten führen</t>
+  </si>
+  <si>
+    <t>Richtlinien beachten und folgen</t>
   </si>
 </sst>
 </file>
@@ -298,7 +349,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -324,11 +375,12 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Komma" xfId="1" builtinId="3"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="2" xr:uid="{BBE49FD3-595C-4D9E-AC84-5946CC454979}"/>
-    <cellStyle name="Virgül" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -642,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{307240ED-B140-4B16-AB32-4D7D72E5EA7B}">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="89" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="89" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
@@ -689,9 +741,15 @@
       <c r="D3" s="7"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
+      <c r="A4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:4">
@@ -702,7 +760,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -710,29 +768,29 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -740,59 +798,59 @@
     </row>
     <row r="13" spans="1:4" ht="28.9">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="43.15">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -800,39 +858,78 @@
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1">
       <c r="A19" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B19" s="7">
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D19" s="7"/>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
+      <c r="A20" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="D20" s="7"/>
     </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1"/>
+    <row r="21" spans="1:4" ht="15" customHeight="1">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>28</v>
+      </c>
+    </row>
     <row r="22" spans="1:4" ht="15" customHeight="1"/>
     <row r="23" spans="1:4" ht="15" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1"/>
-    <row r="25" spans="1:4" ht="15" customHeight="1"/>
+    <row r="24" spans="1:4" ht="15" customHeight="1">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15" customHeight="1">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>32</v>
+      </c>
+    </row>
     <row r="26" spans="1:4" ht="15" customHeight="1"/>
     <row r="27" spans="1:4" ht="15" customHeight="1"/>
     <row r="28" spans="1:4" ht="15" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -840,51 +937,60 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="5" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>26</v>
+        <v>36</v>
+      </c>
+      <c r="D29" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B30">
         <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>39</v>
+      </c>
+      <c r="D30" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1">
       <c r="A32" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>31</v>
+        <v>43</v>
+      </c>
+      <c r="D32" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -892,24 +998,24 @@
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B35">
         <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1">
@@ -918,7 +1024,7 @@
     <row r="37" spans="1:4" ht="15" customHeight="1"/>
     <row r="38" spans="1:4" ht="15" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -926,44 +1032,50 @@
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="C39" t="s">
-        <v>40</v>
+        <v>53</v>
+      </c>
+      <c r="D39" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="B40">
         <v>3</v>
       </c>
       <c r="C40" t="s">
-        <v>41</v>
+        <v>55</v>
+      </c>
+      <c r="D40" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15" customHeight="1">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="B41">
         <v>2</v>
       </c>
       <c r="C41" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="D41" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1"/>
     <row r="43" spans="1:4" ht="15" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -971,34 +1083,34 @@
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="C44" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15" customHeight="1">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B45" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="C45" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="D45" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1"/>
     <row r="47" spans="1:4" ht="15" customHeight="1"/>
     <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -1006,29 +1118,40 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15">
       <c r="A50" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="B50">
         <v>2</v>
       </c>
       <c r="C50" t="s">
-        <v>55</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>67</v>
+      </c>
+      <c r="B51">
+        <v>6</v>
+      </c>
+      <c r="C51" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -1036,13 +1159,16 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="B54" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="C54" t="s">
-        <v>58</v>
+        <v>74</v>
+      </c>
+      <c r="D54" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/Semester_3/Publikationsprojekt/Problemtypologie_Publikationsprojekt.xlsx
+++ b/Semester_3/Publikationsprojekt/Problemtypologie_Publikationsprojekt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28224"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/357609b57e560daa/Desktop/Repositories/Studium/Semester_3/Publikationsprojekt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="167" documentId="13_ncr:1_{CDE965C2-832E-4F8B-8631-22DC7706D039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9943C298-C947-4D99-AA14-1786C49814D0}"/>
+  <xr:revisionPtr revIDLastSave="208" documentId="13_ncr:1_{CDE965C2-832E-4F8B-8631-22DC7706D039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9033A373-F3B0-46A3-9187-3936252C5907}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{8CF0B866-91C7-4F51-924A-B35B520145F4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="94">
   <si>
     <t>Kategorie 
 (Bitte Subkategorien benennen!)</t>
@@ -57,12 +57,6 @@
     <t>FA</t>
   </si>
   <si>
-    <t>auf dem Gerätebildschirm eine Grafik zum Ändern angezeigt werden.</t>
-  </si>
-  <si>
-    <t>Batterie abnehmbar aber wurde nicht erwähnt wie man mit dem Batterieproblem umgehen kann</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sicherheit und Rechtskonformität  </t>
   </si>
   <si>
@@ -152,18 +146,12 @@
     <t>Bildnummerierung hat verschiedene Größen</t>
   </si>
   <si>
-    <t>einheitliche größe verwenden</t>
-  </si>
-  <si>
     <t>BO</t>
   </si>
   <si>
     <t>Bilder haben verschiedene Auflösungen</t>
   </si>
   <si>
-    <t>einheitliche auflösung, oder sklalierbare formate verwenden</t>
-  </si>
-  <si>
     <t>Tastenbeschreibung unübersichtlich</t>
   </si>
   <si>
@@ -173,9 +161,6 @@
     <t>ungenügend und unklarer Bilder</t>
   </si>
   <si>
-    <t>höhere auflösung, oder sklalierbare formate verwenden</t>
-  </si>
-  <si>
     <t xml:space="preserve">Klare Anordnung und Struktur  </t>
   </si>
   <si>
@@ -267,6 +252,75 @@
   </si>
   <si>
     <t>Richtlinien beachten und folgen</t>
+  </si>
+  <si>
+    <t>"[…]auf dem Gerätebildschirm eine Grafik zum Ändern angezeigt werden."</t>
+  </si>
+  <si>
+    <t>Batterie nicht abnehmbar; Hinweise was zu tun ist fehlen</t>
+  </si>
+  <si>
+    <t>passende Grafik hinzufügen</t>
+  </si>
+  <si>
+    <t>Entsorgungs- oder Reparaturhinweise</t>
+  </si>
+  <si>
+    <t>Warnhinweise korrekt kennzeichnen und an den Anfang stellen</t>
+  </si>
+  <si>
+    <t>Hinweise auf Stromschlag hinzufügen</t>
+  </si>
+  <si>
+    <t>Grammatikalisch korrekt aufbauen</t>
+  </si>
+  <si>
+    <t>"möglicherweise" vermeiden</t>
+  </si>
+  <si>
+    <t>keine unbekannten Worte oder Wortneuschöpfungen verwenden</t>
+  </si>
+  <si>
+    <t>Genaue Referenz zur Powertaste schaffen</t>
+  </si>
+  <si>
+    <t>Menütaste konkret beschreiben</t>
+  </si>
+  <si>
+    <t>Taste vollständig erklären</t>
+  </si>
+  <si>
+    <t>Klare Beschreibung hinzufügen</t>
+  </si>
+  <si>
+    <t>einheitliche Größe verwenden</t>
+  </si>
+  <si>
+    <t>einheitliche Auflösung, oder sklalierbare Formate verwenden</t>
+  </si>
+  <si>
+    <t>klarer und sichtbare Bilder und Beschreibungen verwenden</t>
+  </si>
+  <si>
+    <t>höhere Auflösung, oder sklalierbare Formate verwenden</t>
+  </si>
+  <si>
+    <t>sinnvolle Kapitelstruktur wählen</t>
+  </si>
+  <si>
+    <t>passende Bilder wählen</t>
+  </si>
+  <si>
+    <t>passende Textstruktur wählen</t>
+  </si>
+  <si>
+    <t>Link zu anderssprachigen Anleitung zu Beginn einbetten</t>
+  </si>
+  <si>
+    <t>Inhaltsverzeichnis hinzufügen</t>
+  </si>
+  <si>
+    <t>Link oder Qr-Code zum support hinzufügen</t>
   </si>
 </sst>
 </file>
@@ -276,7 +330,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -395,10 +449,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -436,7 +494,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -542,7 +600,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -684,7 +742,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -694,19 +752,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{307240ED-B140-4B16-AB32-4D7D72E5EA7B}">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="89" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="38" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" customWidth="1"/>
-    <col min="3" max="3" width="106.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="61.5703125" customWidth="1"/>
+    <col min="2" max="2" width="7.83984375" customWidth="1"/>
+    <col min="3" max="3" width="106.41796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="61.578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" ht="31.15">
+    <row r="1" spans="1:4" s="3" customFormat="1" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -720,7 +778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -728,7 +786,7 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
@@ -736,11 +794,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="7"/>
-    </row>
-    <row r="4" spans="1:4">
+        <v>71</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
@@ -748,427 +808,481 @@
         <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="7"/>
-    </row>
-    <row r="5" spans="1:4">
+        <v>72</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" ht="28.9">
+    <row r="13" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="43.15">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="D14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1">
+    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B19" s="7">
         <v>2</v>
       </c>
       <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="7"/>
-    </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1">
-      <c r="A20" s="7" t="s">
+      <c r="C20" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="D20" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
         <v>24</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="7"/>
-    </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1">
-      <c r="A21" t="s">
-        <v>26</v>
       </c>
       <c r="B21">
         <v>2</v>
       </c>
       <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="D21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1"/>
-    <row r="23" spans="1:4" ht="15" customHeight="1">
-      <c r="A23" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1">
+    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1">
+        <v>29</v>
+      </c>
+      <c r="D24" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B25">
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15" customHeight="1"/>
-    <row r="27" spans="1:4" ht="15" customHeight="1"/>
-    <row r="28" spans="1:4" ht="15" customHeight="1">
+        <v>30</v>
+      </c>
+      <c r="D25" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="D29" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" t="s">
         <v>35</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D29" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15" customHeight="1">
-      <c r="A30" t="s">
-        <v>38</v>
       </c>
       <c r="B30">
         <v>2</v>
       </c>
       <c r="C30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" t="s">
         <v>39</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D32" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="1" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15" customHeight="1">
-      <c r="A31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15" customHeight="1">
-      <c r="A32" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32" t="s">
-        <v>43</v>
-      </c>
-      <c r="D32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15" customHeight="1">
-      <c r="A33" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4" ht="15" customHeight="1">
+    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15" customHeight="1">
+        <v>42</v>
+      </c>
+      <c r="D34" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B35">
         <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15" customHeight="1">
+        <v>44</v>
+      </c>
+      <c r="D35" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="6"/>
     </row>
-    <row r="37" spans="1:4" ht="15" customHeight="1"/>
-    <row r="38" spans="1:4" ht="15" customHeight="1">
+    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:4" ht="15" customHeight="1">
+    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C39" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15" customHeight="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B40">
         <v>3</v>
       </c>
       <c r="C40" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D40" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="15" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B41">
         <v>2</v>
       </c>
       <c r="C41" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D41" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="15" customHeight="1"/>
-    <row r="43" spans="1:4" ht="15" customHeight="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
     </row>
-    <row r="44" spans="1:4" ht="15" customHeight="1">
+    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" t="s">
+        <v>59</v>
+      </c>
+      <c r="D45" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C44" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="15" customHeight="1">
-      <c r="A45" t="s">
-        <v>61</v>
-      </c>
-      <c r="B45" t="s">
-        <v>62</v>
-      </c>
-      <c r="C45" t="s">
-        <v>64</v>
-      </c>
-      <c r="D45" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="15" customHeight="1"/>
-    <row r="47" spans="1:4" ht="15" customHeight="1"/>
-    <row r="48" spans="1:4">
-      <c r="A48" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="15">
+        <v>63</v>
+      </c>
+      <c r="D49" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B50">
         <v>2</v>
       </c>
       <c r="C50" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>65</v>
+      </c>
+      <c r="D50" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B51">
         <v>6</v>
       </c>
       <c r="C51" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>66</v>
+      </c>
+      <c r="D51" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B54" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C54" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D54" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
